--- a/biology/Botanique/Agrostis/Agrostis.xlsx
+++ b/biology/Botanique/Agrostis/Agrostis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrostis est un genre de plantes monocotylédones de la famille des Poaceae (graminées), à distribution sub-cosmopolite, qui comprend environ 220 espèces des régions tempérées et froides. 
-Plusieurs espèces de ce genre sont parfois employées dans les mélanges comme plantes fourragères pour prairies ou pâtures. Cependant, quoique les Agrostis puissent être recommandables dans certaines conditions spéciales[2], on ne peut guère les considérer comme étant d'excellentes graminées fourragères.
+Plusieurs espèces de ce genre sont parfois employées dans les mélanges comme plantes fourragères pour prairies ou pâtures. Cependant, quoique les Agrostis puissent être recommandables dans certaines conditions spéciales, on ne peut guère les considérer comme étant d'excellentes graminées fourragères.
 D'autres espèces telles que l'Agrostide ténue et l'Agrostide stolonifère sont utilisées pour les gazons d'agrément et certains terrains de sport (green de golf).
-Elles sont toutes plus ou moins traçantes et envahissantes et peuvent devenir de véritables mauvaises herbes, vivant au détriment des plantes voisines, à la fois plus délicates et plus riches en principes nutritifs. Cette fâcheuse particularité des Agrostis est si bien connue qu'on les appelle quelquefois, à tort, « chiendent ». On leur donne aussi les noms vulgaires de « traînasse » ou « terrenne »[3].
+Elles sont toutes plus ou moins traçantes et envahissantes et peuvent devenir de véritables mauvaises herbes, vivant au détriment des plantes voisines, à la fois plus délicates et plus riches en principes nutritifs. Cette fâcheuse particularité des Agrostis est si bien connue qu'on les appelle quelquefois, à tort, « chiendent ». On leur donne aussi les noms vulgaires de « traînasse » ou « terrenne ».
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractères communs à toutes les espèces du genre Agrostis sont les suivants : Épillets pédicellés, comprimés par le côté, convexes sur les deux faces, renfermant une fleur hermaphrodite et, quelquefois, le rudiment d'une seconde fleur, formant par leur réunion une panicule rameuse. Glumes plus longues que la fleur, carénées, un peu inégales. aiguës. Glumelles très inégales, membraneuses, s'étalant pendant l'anthèse; l'inférieure brièvement barbue à sa base, oblongue, carénée, tronquée et dentelée au sommet, munie ou dépourvue d'une arête dorsale genouillée; glumelle supérieure beaucoup plus petite, bicarénée, souvent complètement nulle. Glumellules entières, glabres. Étamines 1-3. Stigmates presque sessiles, plumeux, s'étalant à la base de la fleur. Caryopse libre, glabre, ellipsoïde, non comprimé et à section transversale orbiculaire, muni d'un léger sillon sur la face interne.
 Les graines des Agrostis sont très fines et demandent à être peu recouvertes, ce qui exige des soins particuliers pour leur semis.
@@ -546,9 +560,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a montré au début des années 1990 que certaines populations d'agrostides (notamment des espèces Agrostis capillaris et Agrostis tenuis) peuvent présenter des capacités de résistance à des sels de l'acide arsénique (arséniates)[4], substances entrant dans la composition de certains désherbants notamment utilisés sur les golfs. En concentrant ce poison sans en mourir, ces plantes peuvent aussi contribuer à décontaminer l'environnement (ou être utilisées lors d'opérations de phytoremédiation).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a montré au début des années 1990 que certaines populations d'agrostides (notamment des espèces Agrostis capillaris et Agrostis tenuis) peuvent présenter des capacités de résistance à des sels de l'acide arsénique (arséniates), substances entrant dans la composition de certains désherbants notamment utilisés sur les golfs. En concentrant ce poison sans en mourir, ces plantes peuvent aussi contribuer à décontaminer l'environnement (ou être utilisées lors d'opérations de phytoremédiation).
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (2 novembre 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (2 novembre 2017) :
 Agrostis acutiflora (Schrad.) C.C. Gmel.
 Agrostis adamsonii Vickery
 Agrostis aemula R.Br.
@@ -840,9 +858,11 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>De nombreuses espèces d'Agrostis ont une importance économique significatives[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De nombreuses espèces d'Agrostis ont une importance économique significatives :
 espèces adventices des cultures, parmi les plus sigificatives figurent : Agrostis canina, Agrostis castellana, Agrostis gigantea, Agrostis stolonifera, Agrostis tenuis ;
 espèces cultivées comme plantes fourragères : Agrostis palustris, Agrostis tenuis (seulement sur sols pauvres et acides), etc. ;
 espèces importantes des prairies naturelles : Agrostis exarata, Agrostis oregonensis, Agrostis tenuis, Agrostis variabilis, etc. ;
@@ -874,9 +894,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Agrostis » est un mot emprunté au grec ancien, « ἄγρωστις » (agrostis), qui désignait dans l'Antiquité une plante fourragère non déterminée[7], ou au latin agrostis (même signification)[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Agrostis » est un mot emprunté au grec ancien, « ἄγρωστις » (agrostis), qui désignait dans l'Antiquité une plante fourragère non déterminée, ou au latin agrostis (même signification).
 </t>
         </is>
       </c>
